--- a/value_strategy.xlsx
+++ b/value_strategy.xlsx
@@ -100,112 +100,112 @@
     <t>DXC</t>
   </si>
   <si>
+    <t>DISH</t>
+  </si>
+  <si>
+    <t>PSX</t>
+  </si>
+  <si>
     <t>LEN</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>DHI</t>
   </si>
   <si>
-    <t>DISH</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>PSX</t>
-  </si>
-  <si>
     <t>MOS</t>
   </si>
   <si>
     <t>CCL</t>
   </si>
   <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>VLO</t>
+  </si>
+  <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>NRG</t>
-  </si>
-  <si>
     <t>FDX</t>
   </si>
   <si>
-    <t>VLO</t>
-  </si>
-  <si>
     <t>WRK</t>
   </si>
   <si>
-    <t>MPC</t>
+    <t>UHS</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>EQT</t>
+  </si>
+  <si>
+    <t>WDC</t>
+  </si>
+  <si>
     <t>OGN</t>
   </si>
   <si>
-    <t>NUE</t>
-  </si>
-  <si>
-    <t>UHS</t>
-  </si>
-  <si>
-    <t>WDC</t>
-  </si>
-  <si>
-    <t>EQT</t>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>IVZ</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>TAP</t>
   </si>
   <si>
     <t>SIVB</t>
   </si>
   <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>HCA</t>
-  </si>
-  <si>
-    <t>IVZ</t>
+    <t>WBA</t>
   </si>
   <si>
     <t>IP</t>
   </si>
   <si>
-    <t>TAP</t>
-  </si>
-  <si>
-    <t>WBA</t>
-  </si>
-  <si>
     <t>NWL</t>
   </si>
   <si>
+    <t>HIG</t>
+  </si>
+  <si>
+    <t>PFG</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
     <t>CINF</t>
   </si>
   <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>HIG</t>
-  </si>
-  <si>
-    <t>PFG</t>
-  </si>
-  <si>
     <t>ZION</t>
   </si>
   <si>
-    <t>XOM</t>
-  </si>
-  <si>
     <t>RL</t>
   </si>
   <si>
     <t>AIZ</t>
   </si>
   <si>
-    <t>MU</t>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>FOXA</t>
   </si>
   <si>
     <t>EV/EDITBA</t>
@@ -652,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2">
-        <v>63.11</v>
+        <v>63.1</v>
       </c>
       <c r="C2" s="3">
         <v>3169</v>
@@ -664,25 +664,25 @@
         <v>0.0501002004008016</v>
       </c>
       <c r="F2" s="4">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="G2" s="5">
         <v>0.1222444889779559</v>
       </c>
       <c r="H2" s="4">
-        <v>0.7745</v>
+        <v>0.7956</v>
       </c>
       <c r="I2" s="5">
         <v>0.1102204408817635</v>
       </c>
       <c r="J2" s="4">
-        <v>2.158636771835249</v>
+        <v>2.217310655459403</v>
       </c>
       <c r="K2" s="5">
         <v>0.01803607214428858</v>
       </c>
       <c r="L2" s="4">
-        <v>0.7745205438596491</v>
+        <v>0.7955727786996505</v>
       </c>
       <c r="M2" s="5">
         <v>0.02204408817635271</v>
@@ -696,43 +696,43 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>40.56</v>
+        <v>40.43</v>
       </c>
       <c r="C3" s="3">
-        <v>4930</v>
+        <v>4946</v>
       </c>
       <c r="D3" s="4">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
       <c r="E3" s="5">
         <v>0.1122244488977956</v>
       </c>
       <c r="F3" s="4">
-        <v>0.8652</v>
+        <v>0.8829</v>
       </c>
       <c r="G3" s="5">
         <v>0.08617234468937877</v>
       </c>
       <c r="H3" s="4">
-        <v>0.3836</v>
+        <v>0.3914</v>
       </c>
       <c r="I3" s="5">
-        <v>0.03807615230460922</v>
+        <v>0.04208416833667335</v>
       </c>
       <c r="J3" s="4">
-        <v>2.082701449629286</v>
+        <v>2.13602695463392</v>
       </c>
       <c r="K3" s="5">
         <v>0.01603206412825652</v>
       </c>
       <c r="L3" s="4">
-        <v>1.640018145703339</v>
+        <v>1.682009183762087</v>
       </c>
       <c r="M3" s="5">
         <v>0.08416833667334669</v>
       </c>
       <c r="N3" s="5">
-        <v>0.06733466933867736</v>
+        <v>0.06813627254509018</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -740,37 +740,37 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>178.88</v>
+        <v>175.78</v>
       </c>
       <c r="C4" s="3">
-        <v>1118</v>
+        <v>1137</v>
       </c>
       <c r="D4" s="4">
-        <v>-12.55</v>
+        <v>-12.34</v>
       </c>
       <c r="E4" s="5">
         <v>0.03006012024048096</v>
       </c>
       <c r="F4" s="4">
-        <v>-5.88</v>
+        <v>-6</v>
       </c>
       <c r="G4" s="5">
         <v>0.06212424849699399</v>
       </c>
       <c r="H4" s="4">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="I4" s="5">
         <v>0.2865731462925852</v>
       </c>
       <c r="J4" s="4">
-        <v>-27.55132524334957</v>
+        <v>-27.94734767909329</v>
       </c>
       <c r="K4" s="5">
         <v>0.006012024048096193</v>
       </c>
       <c r="L4" s="4">
-        <v>-174.8739288335315</v>
+        <v>-177.3875646979786</v>
       </c>
       <c r="M4" s="5">
         <v>0.002004008016032064</v>
@@ -784,43 +784,43 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>103.24</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>1937</v>
+        <v>2013</v>
       </c>
       <c r="D5" s="4">
-        <v>5.09</v>
+        <v>4.9</v>
       </c>
       <c r="E5" s="5">
         <v>0.06412825651302606</v>
       </c>
       <c r="F5" s="4">
-        <v>0.7661</v>
+        <v>0.7748</v>
       </c>
       <c r="G5" s="5">
         <v>0.08016032064128258</v>
       </c>
       <c r="H5" s="4">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I5" s="5">
-        <v>0.1703406813627255</v>
+        <v>0.1663326653306614</v>
       </c>
       <c r="J5" s="4">
-        <v>3.603420903542033</v>
+        <v>3.644368868306668</v>
       </c>
       <c r="K5" s="5">
         <v>0.03607214428857716</v>
       </c>
       <c r="L5" s="4">
-        <v>1.215377592251786</v>
+        <v>1.229188701238342</v>
       </c>
       <c r="M5" s="5">
         <v>0.05811623246492986</v>
       </c>
       <c r="N5" s="5">
-        <v>0.08176352705410822</v>
+        <v>0.08096192384769541</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -828,43 +828,43 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>48.41</v>
+        <v>47.78</v>
       </c>
       <c r="C6" s="3">
-        <v>4131</v>
+        <v>4185</v>
       </c>
       <c r="D6" s="4">
-        <v>6.66</v>
+        <v>6.57</v>
       </c>
       <c r="E6" s="5">
-        <v>0.1062124248496994</v>
+        <v>0.1042084168336673</v>
       </c>
       <c r="F6" s="4">
-        <v>0.5131</v>
+        <v>0.5222</v>
       </c>
       <c r="G6" s="5">
         <v>0.07615230460921844</v>
       </c>
       <c r="H6" s="4">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="I6" s="5">
         <v>0.1482965931863728</v>
       </c>
       <c r="J6" s="4">
-        <v>3.884320857504216</v>
+        <v>3.952910925210793</v>
       </c>
       <c r="K6" s="5">
-        <v>0.04609218436873747</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="L6" s="4">
-        <v>1.055625975183602</v>
+        <v>1.074266417043801</v>
       </c>
       <c r="M6" s="5">
-        <v>0.04008016032064129</v>
+        <v>0.04208416833667335</v>
       </c>
       <c r="N6" s="5">
-        <v>0.08336673346693388</v>
+        <v>0.08416833667334669</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -872,43 +872,43 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>13.9</v>
+        <v>14.08</v>
       </c>
       <c r="C7" s="3">
-        <v>14388</v>
+        <v>14204</v>
       </c>
       <c r="D7" s="4">
-        <v>6.23</v>
+        <v>6.31</v>
       </c>
       <c r="E7" s="5">
         <v>0.09619238476953909</v>
       </c>
       <c r="F7" s="4">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G7" s="5">
-        <v>0.1392785571142285</v>
+        <v>0.1382765531062124</v>
       </c>
       <c r="H7" s="4">
-        <v>0.3579</v>
+        <v>0.3618</v>
       </c>
       <c r="I7" s="5">
         <v>0.0340681362725451</v>
       </c>
       <c r="J7" s="4">
-        <v>4.198992789043255</v>
+        <v>4.25736763424968</v>
       </c>
       <c r="K7" s="5">
         <v>0.06212424849699399</v>
       </c>
       <c r="L7" s="4">
-        <v>1.872224664616466</v>
+        <v>1.898252531412002</v>
       </c>
       <c r="M7" s="5">
         <v>0.09619238476953909</v>
       </c>
       <c r="N7" s="5">
-        <v>0.08557114228456915</v>
+        <v>0.08537074148296595</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -916,43 +916,43 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>37.58</v>
+        <v>35.94</v>
       </c>
       <c r="C8" s="3">
-        <v>5321</v>
+        <v>5564</v>
       </c>
       <c r="D8" s="4">
-        <v>5.94</v>
+        <v>5.68</v>
       </c>
       <c r="E8" s="5">
-        <v>0.08817635270541083</v>
+        <v>0.08016032064128258</v>
       </c>
       <c r="F8" s="4">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G8" s="5">
-        <v>0.1503006012024048</v>
+        <v>0.1462925851703407</v>
       </c>
       <c r="H8" s="4">
-        <v>0.9331</v>
+        <v>0.9406</v>
       </c>
       <c r="I8" s="5">
         <v>0.1302605210420842</v>
       </c>
       <c r="J8" s="4">
-        <v>3.580512563632488</v>
+        <v>3.609325701129823</v>
       </c>
       <c r="K8" s="5">
         <v>0.0340681362725451</v>
       </c>
       <c r="L8" s="4">
-        <v>1.100306874287586</v>
+        <v>1.109161275073698</v>
       </c>
       <c r="M8" s="5">
         <v>0.04809619238476955</v>
       </c>
       <c r="N8" s="5">
-        <v>0.09018036072144289</v>
+        <v>0.08777555110220442</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -960,43 +960,43 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>30.04</v>
+        <v>29.86</v>
       </c>
       <c r="C9" s="3">
-        <v>6657</v>
+        <v>6697</v>
       </c>
       <c r="D9" s="4">
-        <v>5.16</v>
+        <v>5.13</v>
       </c>
       <c r="E9" s="5">
         <v>0.06613226452905811</v>
       </c>
       <c r="F9" s="4">
-        <v>-12.53</v>
+        <v>-13.04</v>
       </c>
       <c r="G9" s="5">
         <v>0.04809619238476955</v>
       </c>
       <c r="H9" s="4">
-        <v>0.4479</v>
+        <v>0.4659</v>
       </c>
       <c r="I9" s="5">
         <v>0.05210420841683366</v>
       </c>
       <c r="J9" s="4">
-        <v>6.105056953504755</v>
+        <v>6.310567527826699</v>
       </c>
       <c r="K9" s="5">
         <v>0.124248496993988</v>
       </c>
       <c r="L9" s="4">
-        <v>2.690717486765505</v>
+        <v>2.781293365132345</v>
       </c>
       <c r="M9" s="5">
-        <v>0.1723446893787575</v>
+        <v>0.1783567134268537</v>
       </c>
       <c r="N9" s="5">
-        <v>0.09258517034068137</v>
+        <v>0.0937875751503006</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1004,43 +1004,43 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>44.78</v>
+        <v>45.15</v>
       </c>
       <c r="C10" s="3">
-        <v>4466</v>
+        <v>4429</v>
       </c>
       <c r="D10" s="4">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="E10" s="5">
         <v>0.0561122244488978</v>
       </c>
       <c r="F10" s="4">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="G10" s="5">
-        <v>0.1332665330661323</v>
+        <v>0.1302605210420842</v>
       </c>
       <c r="H10" s="4">
-        <v>0.6516</v>
+        <v>0.6618000000000001</v>
       </c>
       <c r="I10" s="5">
         <v>0.08216432865731463</v>
       </c>
       <c r="J10" s="4">
-        <v>3.739822190285525</v>
+        <v>3.789397323940286</v>
       </c>
       <c r="K10" s="5">
         <v>0.04008016032064129</v>
       </c>
       <c r="L10" s="4">
-        <v>2.616891286501726</v>
+        <v>2.651580832872485</v>
       </c>
       <c r="M10" s="5">
-        <v>0.1603206412825652</v>
+        <v>0.1623246492985972</v>
       </c>
       <c r="N10" s="5">
-        <v>0.09438877755511023</v>
+        <v>0.09418837675350702</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1048,43 +1048,43 @@
         <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>66.28</v>
+        <v>65.48</v>
       </c>
       <c r="C11" s="3">
-        <v>3017</v>
+        <v>3054</v>
       </c>
       <c r="D11" s="4">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="E11" s="5">
-        <v>0.08817635270541083</v>
+        <v>0.09118236472945891</v>
       </c>
       <c r="F11" s="4">
-        <v>0.9942</v>
+        <v>0.9916</v>
       </c>
       <c r="G11" s="5">
-        <v>0.1022044088176353</v>
+        <v>0.09619238476953909</v>
       </c>
       <c r="H11" s="4">
-        <v>0.3675</v>
+        <v>0.3666</v>
       </c>
       <c r="I11" s="5">
         <v>0.03607214428857716</v>
       </c>
       <c r="J11" s="4">
-        <v>3.926332241374204</v>
+        <v>3.919042381756257</v>
       </c>
       <c r="K11" s="5">
-        <v>0.0501002004008016</v>
+        <v>0.04809619238476955</v>
       </c>
       <c r="L11" s="4">
-        <v>3.383248899578921</v>
+        <v>3.376967360469568</v>
       </c>
       <c r="M11" s="5">
-        <v>0.2364729458917836</v>
+        <v>0.2384769539078156</v>
       </c>
       <c r="N11" s="5">
-        <v>0.1026052104208417</v>
+        <v>0.1020040080160321</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1092,43 +1092,43 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>80.17</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="C12" s="3">
-        <v>2494</v>
+        <v>2523</v>
       </c>
       <c r="D12" s="4">
-        <v>-20.14</v>
+        <v>-19.91</v>
       </c>
       <c r="E12" s="5">
         <v>0.02004008016032064</v>
       </c>
       <c r="F12" s="4">
-        <v>-11.58</v>
+        <v>-11.8</v>
       </c>
       <c r="G12" s="5">
         <v>0.05210420841683366</v>
       </c>
       <c r="H12" s="4">
-        <v>0.1103</v>
+        <v>0.1124</v>
       </c>
       <c r="I12" s="5">
         <v>0.004008016032064129</v>
       </c>
       <c r="J12" s="4">
-        <v>8.706004381026439</v>
+        <v>8.860920306765163</v>
       </c>
       <c r="K12" s="5">
-        <v>0.2424849699398798</v>
+        <v>0.2404809619238477</v>
       </c>
       <c r="L12" s="4">
-        <v>3.435912731011201</v>
+        <v>3.497051868804665</v>
       </c>
       <c r="M12" s="5">
-        <v>0.2404809619238477</v>
+        <v>0.2464929859719439</v>
       </c>
       <c r="N12" s="5">
-        <v>0.1118236472945892</v>
+        <v>0.112625250501002</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1136,43 +1136,43 @@
         <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>38.94</v>
+        <v>38.73</v>
       </c>
       <c r="C13" s="3">
-        <v>5136</v>
+        <v>5163</v>
       </c>
       <c r="D13" s="4">
-        <v>-3.4</v>
+        <v>-3.38</v>
       </c>
       <c r="E13" s="5">
         <v>0.04208416833667335</v>
       </c>
       <c r="F13" s="4">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="G13" s="5">
-        <v>0.4859719438877756</v>
+        <v>0.4909819639278558</v>
       </c>
       <c r="H13" s="4">
-        <v>0.3353</v>
+        <v>0.3428</v>
       </c>
       <c r="I13" s="5">
         <v>0.0280561122244489</v>
       </c>
       <c r="J13" s="4">
-        <v>-3.780303239882698</v>
+        <v>-3.864662855131965</v>
       </c>
       <c r="K13" s="5">
         <v>0.01402805611222445</v>
       </c>
       <c r="L13" s="4">
-        <v>0.3353145887004474</v>
+        <v>0.3427973243158881</v>
       </c>
       <c r="M13" s="5">
         <v>0.004008016032064129</v>
       </c>
       <c r="N13" s="5">
-        <v>0.1148296593186373</v>
+        <v>0.1158316633266533</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1180,43 +1180,43 @@
         <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>133.9</v>
+        <v>132.01</v>
       </c>
       <c r="C14" s="3">
-        <v>1493</v>
+        <v>1515</v>
       </c>
       <c r="D14" s="4">
-        <v>-117.46</v>
+        <v>-115.8</v>
       </c>
       <c r="E14" s="5">
         <v>0.01202404809619239</v>
       </c>
       <c r="F14" s="4">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="G14" s="5">
-        <v>0.3777555110220441</v>
+        <v>0.375751503006012</v>
       </c>
       <c r="H14" s="4">
-        <v>0.6967</v>
+        <v>0.6994</v>
       </c>
       <c r="I14" s="5">
-        <v>0.09218436873747494</v>
+        <v>0.09018036072144289</v>
       </c>
       <c r="J14" s="4">
-        <v>5.243648529498962</v>
+        <v>5.264091603765194</v>
       </c>
       <c r="K14" s="5">
-        <v>0.1002004008016032</v>
+        <v>0.09819639278557114</v>
       </c>
       <c r="L14" s="4">
-        <v>0.6966608827004884</v>
+        <v>0.699376909543879</v>
       </c>
       <c r="M14" s="5">
         <v>0.01803607214428858</v>
       </c>
       <c r="N14" s="5">
-        <v>0.1200400801603206</v>
+        <v>0.1188376753507014</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1224,43 +1224,43 @@
         <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>29.67</v>
+        <v>29.44</v>
       </c>
       <c r="C15" s="3">
-        <v>6740</v>
+        <v>6793</v>
       </c>
       <c r="D15" s="4">
-        <v>9.6</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E15" s="5">
-        <v>0.156312625250501</v>
+        <v>0.1523046092184369</v>
       </c>
       <c r="F15" s="4">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G15" s="5">
-        <v>0.1743486973947896</v>
+        <v>0.1773547094188377</v>
       </c>
       <c r="H15" s="4">
-        <v>0.4357</v>
+        <v>0.4441</v>
       </c>
       <c r="I15" s="5">
         <v>0.04609218436873747</v>
       </c>
       <c r="J15" s="4">
-        <v>4.489834072108162</v>
+        <v>4.55434910665999</v>
       </c>
       <c r="K15" s="5">
         <v>0.06813627254509019</v>
       </c>
       <c r="L15" s="4">
-        <v>2.696601095338346</v>
+        <v>2.735348922105263</v>
       </c>
       <c r="M15" s="5">
-        <v>0.1743486973947896</v>
+        <v>0.1723446893787575</v>
       </c>
       <c r="N15" s="5">
-        <v>0.1238476953907816</v>
+        <v>0.123246492985972</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1268,43 +1268,43 @@
         <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>87.83</v>
+        <v>15.59</v>
       </c>
       <c r="C16" s="3">
-        <v>2277</v>
+        <v>12828</v>
       </c>
       <c r="D16" s="4">
-        <v>5.81</v>
+        <v>5.18</v>
       </c>
       <c r="E16" s="5">
-        <v>0.08216432865731463</v>
+        <v>0.06813627254509019</v>
       </c>
       <c r="F16" s="4">
-        <v>1.07</v>
+        <v>0.2761</v>
       </c>
       <c r="G16" s="5">
-        <v>0.1072144288577154</v>
+        <v>0.07414829659318638</v>
       </c>
       <c r="H16" s="4">
-        <v>0.7705</v>
+        <v>0.2746</v>
       </c>
       <c r="I16" s="5">
-        <v>0.1082164328657315</v>
+        <v>0.01603206412825652</v>
       </c>
       <c r="J16" s="4">
-        <v>4.112482167678722</v>
+        <v>7.556962204416841</v>
       </c>
       <c r="K16" s="5">
-        <v>0.06012024048096192</v>
+        <v>0.1763527054108217</v>
       </c>
       <c r="L16" s="4">
-        <v>3.831202160115619</v>
+        <v>4.159615900754528</v>
       </c>
       <c r="M16" s="5">
-        <v>0.2725450901803608</v>
+        <v>0.2905811623246493</v>
       </c>
       <c r="N16" s="5">
-        <v>0.1260521042084168</v>
+        <v>0.1250501002004008</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1312,43 +1312,43 @@
         <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>86</v>
+        <v>108.04</v>
       </c>
       <c r="C17" s="3">
-        <v>2325</v>
+        <v>1851</v>
       </c>
       <c r="D17" s="4">
-        <v>5.21</v>
+        <v>4.83</v>
       </c>
       <c r="E17" s="5">
-        <v>0.06813627254509019</v>
+        <v>0.06212424849699399</v>
       </c>
       <c r="F17" s="4">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="G17" s="5">
-        <v>0.1903807615230461</v>
+        <v>0.2374749498997996</v>
       </c>
       <c r="H17" s="4">
-        <v>0.8662</v>
+        <v>0.3158</v>
       </c>
       <c r="I17" s="5">
-        <v>0.124248496993988</v>
+        <v>0.02004008016032064</v>
       </c>
       <c r="J17" s="4">
-        <v>4.052878817794506</v>
+        <v>4.082523316501692</v>
       </c>
       <c r="K17" s="5">
         <v>0.0561122244488978</v>
       </c>
       <c r="L17" s="4">
-        <v>2.952353665521082</v>
+        <v>3.572851427051922</v>
       </c>
       <c r="M17" s="5">
-        <v>0.1943887775551102</v>
+        <v>0.2525050100200401</v>
       </c>
       <c r="N17" s="5">
-        <v>0.1266533066132265</v>
+        <v>0.1256513026052104</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1356,43 +1356,43 @@
         <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>16.05</v>
+        <v>88.16</v>
       </c>
       <c r="C18" s="3">
-        <v>12461</v>
+        <v>2268</v>
       </c>
       <c r="D18" s="4">
-        <v>5.33</v>
+        <v>5.83</v>
       </c>
       <c r="E18" s="5">
-        <v>0.07014028056112225</v>
+        <v>0.08517034068136273</v>
       </c>
       <c r="F18" s="4">
-        <v>0.2697</v>
+        <v>1.09</v>
       </c>
       <c r="G18" s="5">
-        <v>0.07414829659318638</v>
+        <v>0.1062124248496994</v>
       </c>
       <c r="H18" s="4">
-        <v>0.2683</v>
+        <v>0.7836</v>
       </c>
       <c r="I18" s="5">
-        <v>0.01603206412825652</v>
+        <v>0.1082164328657315</v>
       </c>
       <c r="J18" s="4">
-        <v>7.521761498386286</v>
+        <v>4.17530949434756</v>
       </c>
       <c r="K18" s="5">
-        <v>0.1783567134268537</v>
+        <v>0.06012024048096192</v>
       </c>
       <c r="L18" s="4">
-        <v>4.140240202879937</v>
+        <v>3.889732308049076</v>
       </c>
       <c r="M18" s="5">
-        <v>0.2965931863727455</v>
+        <v>0.2685370741482966</v>
       </c>
       <c r="N18" s="5">
-        <v>0.1270541082164329</v>
+        <v>0.1256513026052104</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1400,43 +1400,43 @@
         <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>58.15</v>
+        <v>58.04</v>
       </c>
       <c r="C19" s="3">
-        <v>3439</v>
+        <v>3445</v>
       </c>
       <c r="D19" s="4">
-        <v>14.5</v>
+        <v>14.47</v>
       </c>
       <c r="E19" s="5">
         <v>0.2905811623246493</v>
       </c>
       <c r="F19" s="4">
-        <v>0.9908</v>
+        <v>0.9971</v>
       </c>
       <c r="G19" s="5">
         <v>0.09819639278557114</v>
       </c>
       <c r="H19" s="4">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I19" s="5">
-        <v>0.1432865731462926</v>
+        <v>0.1402805611222445</v>
       </c>
       <c r="J19" s="4">
-        <v>4.770005238178025</v>
+        <v>4.800550442976356</v>
       </c>
       <c r="K19" s="5">
-        <v>0.07815631262525051</v>
+        <v>0.08016032064128258</v>
       </c>
       <c r="L19" s="4">
-        <v>1.001937997735904</v>
+        <v>1.008354007741747</v>
       </c>
       <c r="M19" s="5">
-        <v>0.03807615230460922</v>
+        <v>0.03607214428857716</v>
       </c>
       <c r="N19" s="5">
-        <v>0.1296593186372746</v>
+        <v>0.1290581162324649</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1444,43 +1444,43 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>108.44</v>
+        <v>86.7</v>
       </c>
       <c r="C20" s="3">
-        <v>1844</v>
+        <v>2306</v>
       </c>
       <c r="D20" s="4">
-        <v>4.85</v>
+        <v>5.25</v>
       </c>
       <c r="E20" s="5">
-        <v>0.06012024048096192</v>
+        <v>0.07014028056112225</v>
       </c>
       <c r="F20" s="4">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="G20" s="5">
-        <v>0.2525050100200401</v>
+        <v>0.1903807615230461</v>
       </c>
       <c r="H20" s="4">
-        <v>0.3173</v>
+        <v>0.8845</v>
       </c>
       <c r="I20" s="5">
-        <v>0.02404809619238477</v>
+        <v>0.12625250501002</v>
       </c>
       <c r="J20" s="4">
-        <v>4.098216529946122</v>
+        <v>4.132981196842573</v>
       </c>
       <c r="K20" s="5">
         <v>0.05811623246492986</v>
       </c>
       <c r="L20" s="4">
-        <v>3.586585462525358</v>
+        <v>3.010704917318</v>
       </c>
       <c r="M20" s="5">
-        <v>0.2545090180360722</v>
+        <v>0.2004008016032064</v>
       </c>
       <c r="N20" s="5">
-        <v>0.1298597194388778</v>
+        <v>0.1290581162324649</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1488,43 +1488,43 @@
         <v>33</v>
       </c>
       <c r="B21" s="2">
-        <v>51.3</v>
+        <v>49.1</v>
       </c>
       <c r="C21" s="3">
-        <v>3898</v>
+        <v>4073</v>
       </c>
       <c r="D21" s="4">
-        <v>5.02</v>
+        <v>4.8</v>
       </c>
       <c r="E21" s="5">
-        <v>0.06212424849699399</v>
+        <v>0.06012024048096192</v>
       </c>
       <c r="F21" s="4">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="G21" s="5">
-        <v>0.187374749498998</v>
+        <v>0.1843687374749499</v>
       </c>
       <c r="H21" s="4">
-        <v>0.9344</v>
+        <v>0.9449</v>
       </c>
       <c r="I21" s="5">
         <v>0.1322645290581162</v>
       </c>
       <c r="J21" s="4">
-        <v>3.382138428343014</v>
+        <v>3.413802297852901</v>
       </c>
       <c r="K21" s="5">
         <v>0.02605210420841683</v>
       </c>
       <c r="L21" s="4">
-        <v>3.492217462095687</v>
+        <v>3.524911900943396</v>
       </c>
       <c r="M21" s="5">
         <v>0.248496993987976</v>
       </c>
       <c r="N21" s="5">
-        <v>0.1312625250501002</v>
+        <v>0.1302605210420842</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1532,43 +1532,43 @@
         <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>9.93</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="C22" s="3">
-        <v>20140</v>
+        <v>20060</v>
       </c>
       <c r="D22" s="4">
-        <v>-1.6</v>
+        <v>-1.61</v>
       </c>
       <c r="E22" s="5">
         <v>0.04809619238476955</v>
       </c>
       <c r="F22" s="4">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="G22" s="5">
-        <v>0.1392785571142285</v>
+        <v>0.1402805611222445</v>
       </c>
       <c r="H22" s="4">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="I22" s="5">
         <v>0.1823647294589178</v>
       </c>
       <c r="J22" s="4">
-        <v>-14.68110603141971</v>
+        <v>-14.75879696431342</v>
       </c>
       <c r="K22" s="5">
         <v>0.01002004008016032</v>
       </c>
       <c r="L22" s="4">
-        <v>3.935519533014454</v>
+        <v>3.956345905583862</v>
       </c>
       <c r="M22" s="5">
-        <v>0.2785571142284569</v>
+        <v>0.2745490981963928</v>
       </c>
       <c r="N22" s="5">
-        <v>0.1316633266533066</v>
+        <v>0.131062124248497</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1576,43 +1576,43 @@
         <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>26.81</v>
+        <v>120.23</v>
       </c>
       <c r="C23" s="3">
-        <v>7459</v>
+        <v>1663</v>
       </c>
       <c r="D23" s="4">
-        <v>7.96</v>
+        <v>5.55</v>
       </c>
       <c r="E23" s="5">
-        <v>0.12625250501002</v>
+        <v>0.07414829659318638</v>
       </c>
       <c r="F23" s="4">
-        <v>1.14</v>
+        <v>2.17</v>
       </c>
       <c r="G23" s="5">
-        <v>0.1162324649298597</v>
+        <v>0.3346693386773547</v>
       </c>
       <c r="H23" s="4">
-        <v>1.54</v>
+        <v>0.3286</v>
       </c>
       <c r="I23" s="5">
-        <v>0.2615230460921844</v>
+        <v>0.02605210420841683</v>
       </c>
       <c r="J23" s="4">
-        <v>5.610273307864331</v>
+        <v>3.51855179756889</v>
       </c>
       <c r="K23" s="5">
-        <v>0.1022044088176353</v>
+        <v>0.03006012024048096</v>
       </c>
       <c r="L23" s="4">
-        <v>1.413815484719336</v>
+        <v>3.09484478054183</v>
       </c>
       <c r="M23" s="5">
-        <v>0.06813627254509019</v>
+        <v>0.2024048096192385</v>
       </c>
       <c r="N23" s="5">
-        <v>0.1348697394789579</v>
+        <v>0.1334669338677355</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1620,43 +1620,43 @@
         <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>42.45</v>
+        <v>42.13</v>
       </c>
       <c r="C24" s="3">
-        <v>4711</v>
+        <v>4747</v>
       </c>
       <c r="D24" s="4">
-        <v>5.39</v>
+        <v>5.35</v>
       </c>
       <c r="E24" s="5">
         <v>0.07214428857715431</v>
       </c>
       <c r="F24" s="4">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="G24" s="5">
         <v>0.2735470941883767</v>
       </c>
       <c r="H24" s="4">
-        <v>0.3142</v>
+        <v>0.3182</v>
       </c>
       <c r="I24" s="5">
-        <v>0.02004008016032064</v>
+        <v>0.02204408817635271</v>
       </c>
       <c r="J24" s="4">
-        <v>4.636325329059829</v>
+        <v>4.669553819978632</v>
       </c>
       <c r="K24" s="5">
         <v>0.07214428857715431</v>
       </c>
       <c r="L24" s="4">
-        <v>3.430514235573122</v>
+        <v>3.455100692094862</v>
       </c>
       <c r="M24" s="5">
-        <v>0.2384769539078156</v>
+        <v>0.2404809619238477</v>
       </c>
       <c r="N24" s="5">
-        <v>0.1352705410821643</v>
+        <v>0.1360721442885771</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1664,43 +1664,43 @@
         <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>182.22</v>
+        <v>132.03</v>
       </c>
       <c r="C25" s="3">
-        <v>1097</v>
+        <v>1514</v>
       </c>
       <c r="D25" s="4">
-        <v>13.39</v>
+        <v>5.65</v>
       </c>
       <c r="E25" s="5">
-        <v>0.2565130260521042</v>
+        <v>0.07815631262525051</v>
       </c>
       <c r="F25" s="4">
-        <v>1.84</v>
+        <v>2.35</v>
       </c>
       <c r="G25" s="5">
-        <v>0.2595190380761523</v>
+        <v>0.3867735470941884</v>
       </c>
       <c r="H25" s="4">
-        <v>0.4884</v>
+        <v>0.3021</v>
       </c>
       <c r="I25" s="5">
-        <v>0.0561122244488978</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="J25" s="4">
-        <v>5.76908665499515</v>
+        <v>3.832282388409931</v>
       </c>
       <c r="K25" s="5">
-        <v>0.1102204408817635</v>
+        <v>0.04208416833667335</v>
       </c>
       <c r="L25" s="4">
-        <v>0.6277430677565409</v>
+        <v>2.600766338465599</v>
       </c>
       <c r="M25" s="5">
-        <v>0.01002004008016032</v>
+        <v>0.156312625250501</v>
       </c>
       <c r="N25" s="5">
-        <v>0.1384769539078156</v>
+        <v>0.1362725450901804</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1708,43 +1708,43 @@
         <v>38</v>
       </c>
       <c r="B26" s="2">
-        <v>133.62</v>
+        <v>27.28</v>
       </c>
       <c r="C26" s="3">
-        <v>1496</v>
+        <v>7331</v>
       </c>
       <c r="D26" s="4">
-        <v>5.72</v>
+        <v>8.09</v>
       </c>
       <c r="E26" s="5">
-        <v>0.07815631262525051</v>
+        <v>0.12625250501002</v>
       </c>
       <c r="F26" s="4">
-        <v>2.38</v>
+        <v>1.16</v>
       </c>
       <c r="G26" s="5">
-        <v>0.3967935871743487</v>
+        <v>0.1162324649298597</v>
       </c>
       <c r="H26" s="4">
-        <v>0.3056</v>
+        <v>1.57</v>
       </c>
       <c r="I26" s="5">
-        <v>0.01803607214428858</v>
+        <v>0.2655310621242485</v>
       </c>
       <c r="J26" s="4">
-        <v>3.871766849419848</v>
+        <v>5.728972001024972</v>
       </c>
       <c r="K26" s="5">
-        <v>0.04408817635270541</v>
+        <v>0.1062124248496994</v>
       </c>
       <c r="L26" s="4">
-        <v>2.627562343216611</v>
+        <v>1.443728118417809</v>
       </c>
       <c r="M26" s="5">
-        <v>0.1643286573146293</v>
+        <v>0.07214428857715431</v>
       </c>
       <c r="N26" s="5">
-        <v>0.1402805611222445</v>
+        <v>0.1372745490981964</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1752,43 +1752,43 @@
         <v>39</v>
       </c>
       <c r="B27" s="2">
-        <v>37.92</v>
+        <v>180.45</v>
       </c>
       <c r="C27" s="3">
-        <v>5274</v>
+        <v>1108</v>
       </c>
       <c r="D27" s="4">
-        <v>10.5</v>
+        <v>13.26</v>
       </c>
       <c r="E27" s="5">
-        <v>0.1703406813627255</v>
+        <v>0.2585170340681363</v>
       </c>
       <c r="F27" s="4">
-        <v>0.8195</v>
+        <v>1.89</v>
       </c>
       <c r="G27" s="5">
-        <v>0.08216432865731463</v>
+        <v>0.2605210420841684</v>
       </c>
       <c r="H27" s="4">
-        <v>0.4396</v>
+        <v>0.5004</v>
       </c>
       <c r="I27" s="5">
-        <v>0.04909819639278557</v>
+        <v>0.0561122244488978</v>
       </c>
       <c r="J27" s="4">
-        <v>5.113638943683317</v>
+        <v>5.880140688457808</v>
       </c>
       <c r="K27" s="5">
-        <v>0.09619238476953909</v>
+        <v>0.1082164328657315</v>
       </c>
       <c r="L27" s="4">
-        <v>4.196015023005944</v>
+        <v>0.6398270255511815</v>
       </c>
       <c r="M27" s="5">
-        <v>0.3046092184368738</v>
+        <v>0.01202404809619239</v>
       </c>
       <c r="N27" s="5">
-        <v>0.1404809619238477</v>
+        <v>0.1390781563126253</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1796,43 +1796,43 @@
         <v>40</v>
       </c>
       <c r="B28" s="2">
-        <v>121.81</v>
+        <v>38.02</v>
       </c>
       <c r="C28" s="3">
-        <v>1641</v>
+        <v>5260</v>
       </c>
       <c r="D28" s="4">
-        <v>5.62</v>
+        <v>10.53</v>
       </c>
       <c r="E28" s="5">
-        <v>0.07414829659318638</v>
+        <v>0.1703406813627255</v>
       </c>
       <c r="F28" s="4">
-        <v>2.2</v>
+        <v>0.8463000000000001</v>
       </c>
       <c r="G28" s="5">
-        <v>0.3607214428857716</v>
+        <v>0.08416833667334669</v>
       </c>
       <c r="H28" s="4">
-        <v>0.333</v>
+        <v>0.4539</v>
       </c>
       <c r="I28" s="5">
-        <v>0.02605210420841683</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="J28" s="4">
-        <v>3.556228052254347</v>
+        <v>5.206193739997575</v>
       </c>
       <c r="K28" s="5">
-        <v>0.03206412825651303</v>
+        <v>0.09418837675350701</v>
       </c>
       <c r="L28" s="4">
-        <v>3.127984028411995</v>
+        <v>4.271961197552665</v>
       </c>
       <c r="M28" s="5">
-        <v>0.2164328657314629</v>
+        <v>0.3006012024048096</v>
       </c>
       <c r="N28" s="5">
-        <v>0.1418837675350701</v>
+        <v>0.1398797595190381</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1840,43 +1840,43 @@
         <v>41</v>
       </c>
       <c r="B29" s="2">
-        <v>19.28</v>
+        <v>130.2</v>
       </c>
       <c r="C29" s="3">
-        <v>10373</v>
+        <v>1536</v>
       </c>
       <c r="D29" s="4">
-        <v>7.3</v>
+        <v>13.35</v>
       </c>
       <c r="E29" s="5">
-        <v>0.1222444889779559</v>
+        <v>0.2625250501002004</v>
       </c>
       <c r="F29" s="4">
-        <v>1.11</v>
+        <v>1.43</v>
       </c>
       <c r="G29" s="5">
-        <v>0.1122244488977956</v>
+        <v>0.1643286573146293</v>
       </c>
       <c r="H29" s="4">
-        <v>0.9765</v>
+        <v>0.6347</v>
       </c>
       <c r="I29" s="5">
-        <v>0.1382765531062124</v>
+        <v>0.07615230460921844</v>
       </c>
       <c r="J29" s="4">
-        <v>5.946339870737686</v>
+        <v>8.026850135361569</v>
       </c>
       <c r="K29" s="5">
-        <v>0.1162324649298597</v>
+        <v>0.1963927855711423</v>
       </c>
       <c r="L29" s="4">
-        <v>3.471631904235248</v>
+        <v>0.9846878572679739</v>
       </c>
       <c r="M29" s="5">
-        <v>0.2464929859719439</v>
+        <v>0.0340681362725451</v>
       </c>
       <c r="N29" s="5">
-        <v>0.1470941883767535</v>
+        <v>0.1466933867735471</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1884,43 +1884,43 @@
         <v>42</v>
       </c>
       <c r="B30" s="2">
-        <v>26.02</v>
+        <v>19.19</v>
       </c>
       <c r="C30" s="3">
-        <v>7686</v>
+        <v>10422</v>
       </c>
       <c r="D30" s="4">
-        <v>6.57</v>
+        <v>7.27</v>
       </c>
       <c r="E30" s="5">
-        <v>0.1022044088176353</v>
+        <v>0.124248496993988</v>
       </c>
       <c r="F30" s="4">
-        <v>-5.95</v>
+        <v>1.12</v>
       </c>
       <c r="G30" s="5">
-        <v>0.06012024048096192</v>
+        <v>0.1102204408817635</v>
       </c>
       <c r="H30" s="4">
-        <v>1.01</v>
+        <v>0.9903</v>
       </c>
       <c r="I30" s="5">
-        <v>0.1462925851703407</v>
+        <v>0.1382765531062124</v>
       </c>
       <c r="J30" s="4">
-        <v>7.3416700454316</v>
+        <v>5.989225763316247</v>
       </c>
       <c r="K30" s="5">
-        <v>0.1703406813627255</v>
+        <v>0.1162324649298597</v>
       </c>
       <c r="L30" s="4">
-        <v>3.642336178312046</v>
+        <v>3.49666983280203</v>
       </c>
       <c r="M30" s="5">
-        <v>0.2565130260521042</v>
+        <v>0.2444889779559118</v>
       </c>
       <c r="N30" s="5">
-        <v>0.1470941883767535</v>
+        <v>0.1466933867735471</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1928,43 +1928,43 @@
         <v>43</v>
       </c>
       <c r="B31" s="2">
-        <v>149.95</v>
+        <v>149.25</v>
       </c>
       <c r="C31" s="3">
-        <v>1333</v>
+        <v>1340</v>
       </c>
       <c r="D31" s="4">
-        <v>4.72</v>
+        <v>4.69</v>
       </c>
       <c r="E31" s="5">
         <v>0.05811623246492986</v>
       </c>
       <c r="F31" s="4">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="G31" s="5">
-        <v>0.3366733466933868</v>
+        <v>0.3346693386773547</v>
       </c>
       <c r="H31" s="4">
-        <v>0.8739</v>
+        <v>0.8915</v>
       </c>
       <c r="I31" s="5">
         <v>0.1282565130260521</v>
       </c>
       <c r="J31" s="4">
-        <v>3.170487078674019</v>
+        <v>3.229218713624788</v>
       </c>
       <c r="K31" s="5">
         <v>0.02204408817635271</v>
       </c>
       <c r="L31" s="4">
-        <v>2.942979437926386</v>
+        <v>2.997496611384856</v>
       </c>
       <c r="M31" s="5">
-        <v>0.1923847695390782</v>
+        <v>0.1963927855711423</v>
       </c>
       <c r="N31" s="5">
-        <v>0.1474949899799599</v>
+        <v>0.1478957915831663</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1972,43 +1972,43 @@
         <v>44</v>
       </c>
       <c r="B32" s="2">
-        <v>130.85</v>
+        <v>41.52</v>
       </c>
       <c r="C32" s="3">
-        <v>1528</v>
+        <v>4816</v>
       </c>
       <c r="D32" s="4">
-        <v>13.42</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E32" s="5">
-        <v>0.2585170340681363</v>
+        <v>0.1382765531062124</v>
       </c>
       <c r="F32" s="4">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="G32" s="5">
-        <v>0.1703406813627255</v>
+        <v>0.2044088176352706</v>
       </c>
       <c r="H32" s="4">
-        <v>0.6332</v>
+        <v>1.53</v>
       </c>
       <c r="I32" s="5">
-        <v>0.07815631262525051</v>
+        <v>0.2525050100200401</v>
       </c>
       <c r="J32" s="4">
-        <v>8.014988824736195</v>
+        <v>3.910700448853146</v>
       </c>
       <c r="K32" s="5">
-        <v>0.2044088176352706</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="L32" s="4">
-        <v>0.98323277982824</v>
+        <v>1.994828459246611</v>
       </c>
       <c r="M32" s="5">
-        <v>0.03607214428857716</v>
+        <v>0.1022044088176353</v>
       </c>
       <c r="N32" s="5">
-        <v>0.149498997995992</v>
+        <v>0.1486973947895792</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2016,43 +2016,43 @@
         <v>45</v>
       </c>
       <c r="B33" s="2">
-        <v>36.75</v>
+        <v>35.84</v>
       </c>
       <c r="C33" s="3">
-        <v>5442</v>
+        <v>5580</v>
       </c>
       <c r="D33" s="4">
-        <v>12.67</v>
+        <v>12.36</v>
       </c>
       <c r="E33" s="5">
-        <v>0.2344689378757515</v>
+        <v>0.2244488977955912</v>
       </c>
       <c r="F33" s="4">
-        <v>0.9453</v>
+        <v>0.9641999999999999</v>
       </c>
       <c r="G33" s="5">
         <v>0.09218436873747494</v>
       </c>
       <c r="H33" s="4">
-        <v>0.6548</v>
+        <v>0.6679</v>
       </c>
       <c r="I33" s="5">
         <v>0.08817635270541083</v>
       </c>
       <c r="J33" s="4">
-        <v>6.065171318232045</v>
+        <v>6.149410070349908</v>
       </c>
       <c r="K33" s="5">
         <v>0.1222444889779559</v>
       </c>
       <c r="L33" s="4">
-        <v>3.172820834104046</v>
+        <v>3.216887926974952</v>
       </c>
       <c r="M33" s="5">
         <v>0.2224448897795591</v>
       </c>
       <c r="N33" s="5">
-        <v>0.1519038076152305</v>
+        <v>0.1498997995991984</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2060,43 +2060,43 @@
         <v>46</v>
       </c>
       <c r="B34" s="2">
-        <v>42.41</v>
+        <v>26.42</v>
       </c>
       <c r="C34" s="3">
-        <v>4715</v>
+        <v>7570</v>
       </c>
       <c r="D34" s="4">
-        <v>8.91</v>
+        <v>6.67</v>
       </c>
       <c r="E34" s="5">
-        <v>0.1402805611222445</v>
+        <v>0.1062124248496994</v>
       </c>
       <c r="F34" s="4">
-        <v>1.63</v>
+        <v>-6.21</v>
       </c>
       <c r="G34" s="5">
-        <v>0.2124248496993988</v>
+        <v>0.06012024048096192</v>
       </c>
       <c r="H34" s="4">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
       <c r="I34" s="5">
-        <v>0.2615230460921844</v>
+        <v>0.1543086172344689</v>
       </c>
       <c r="J34" s="4">
-        <v>3.928423098747692</v>
+        <v>7.480344231196366</v>
       </c>
       <c r="K34" s="5">
-        <v>0.05210420841683366</v>
+        <v>0.1723446893787575</v>
       </c>
       <c r="L34" s="4">
-        <v>2.003868693047508</v>
+        <v>3.711134966691711</v>
       </c>
       <c r="M34" s="5">
-        <v>0.1042084168336673</v>
+        <v>0.2585170340681363</v>
       </c>
       <c r="N34" s="5">
-        <v>0.1541082164328657</v>
+        <v>0.1503006012024048</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2104,43 +2104,43 @@
         <v>47</v>
       </c>
       <c r="B35" s="2">
-        <v>231.78</v>
+        <v>43.89</v>
       </c>
       <c r="C35" s="3">
-        <v>862</v>
+        <v>4556</v>
       </c>
       <c r="D35" s="4">
-        <v>8.609999999999999</v>
+        <v>-19</v>
       </c>
       <c r="E35" s="5">
-        <v>0.1362725450901804</v>
+        <v>0.02204408817635271</v>
       </c>
       <c r="F35" s="4">
-        <v>1.09</v>
+        <v>2.95</v>
       </c>
       <c r="G35" s="5">
-        <v>0.1102204408817635</v>
+        <v>0.4869739478957916</v>
       </c>
       <c r="H35" s="4">
-        <v>1.94</v>
+        <v>0.3542</v>
       </c>
       <c r="I35" s="5">
-        <v>0.3346693386773547</v>
+        <v>0.03206412825651303</v>
       </c>
       <c r="J35" s="4">
-        <v>4.9643077318171</v>
+        <v>8.597647914231857</v>
       </c>
       <c r="K35" s="5">
-        <v>0.09018036072144289</v>
+        <v>0.2224448897795591</v>
       </c>
       <c r="L35" s="4">
-        <v>2.035196320787435</v>
+        <v>0.6716154149017105</v>
       </c>
       <c r="M35" s="5">
-        <v>0.1102204408817635</v>
+        <v>0.01603206412825652</v>
       </c>
       <c r="N35" s="5">
-        <v>0.156312625250501</v>
+        <v>0.1559118236472946</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2148,43 +2148,43 @@
         <v>48</v>
       </c>
       <c r="B36" s="2">
-        <v>44.17</v>
+        <v>19.43</v>
       </c>
       <c r="C36" s="3">
-        <v>4527</v>
+        <v>10293</v>
       </c>
       <c r="D36" s="4">
-        <v>-19.12</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E36" s="5">
-        <v>0.02204408817635271</v>
+        <v>0.1583166332665331</v>
       </c>
       <c r="F36" s="4">
-        <v>2.91</v>
+        <v>0.5831</v>
       </c>
       <c r="G36" s="5">
-        <v>0.4859719438877756</v>
+        <v>0.07815631262525051</v>
       </c>
       <c r="H36" s="4">
-        <v>0.3503</v>
+        <v>1.36</v>
       </c>
       <c r="I36" s="5">
-        <v>0.03206412825651303</v>
+        <v>0.2294589178356713</v>
       </c>
       <c r="J36" s="4">
-        <v>8.548374444234998</v>
+        <v>8.193207226672815</v>
       </c>
       <c r="K36" s="5">
-        <v>0.2284569138276553</v>
+        <v>0.2004008016032064</v>
       </c>
       <c r="L36" s="4">
-        <v>0.6677663596338381</v>
+        <v>2.232101910691014</v>
       </c>
       <c r="M36" s="5">
-        <v>0.01603206412825652</v>
+        <v>0.124248496993988</v>
       </c>
       <c r="N36" s="5">
-        <v>0.1569138276553106</v>
+        <v>0.1581162324649299</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2192,43 +2192,43 @@
         <v>49</v>
       </c>
       <c r="B37" s="2">
-        <v>240.22</v>
+        <v>238.47</v>
       </c>
       <c r="C37" s="3">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="D37" s="4">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E37" s="5">
         <v>0.2645290581162325</v>
       </c>
       <c r="F37" s="4">
-        <v>-19.78</v>
+        <v>-20.15</v>
       </c>
       <c r="G37" s="5">
-        <v>0.03206412825651303</v>
+        <v>0.0340681362725451</v>
       </c>
       <c r="H37" s="4">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="I37" s="5">
-        <v>0.1763527054108217</v>
+        <v>0.1783567134268537</v>
       </c>
       <c r="J37" s="4">
-        <v>8.588387889590429</v>
+        <v>8.691966908199717</v>
       </c>
       <c r="K37" s="5">
-        <v>0.2344689378757515</v>
+        <v>0.2284569138276553</v>
       </c>
       <c r="L37" s="4">
-        <v>1.728736204464883</v>
+        <v>1.74958537916388</v>
       </c>
       <c r="M37" s="5">
         <v>0.08617234468937877</v>
       </c>
       <c r="N37" s="5">
-        <v>0.1587174348697395</v>
+        <v>0.1583166332665331</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2236,43 +2236,43 @@
         <v>50</v>
       </c>
       <c r="B38" s="2">
-        <v>19.11</v>
+        <v>54.97</v>
       </c>
       <c r="C38" s="3">
-        <v>10465</v>
+        <v>3638</v>
       </c>
       <c r="D38" s="4">
-        <v>9.550000000000001</v>
+        <v>24.22</v>
       </c>
       <c r="E38" s="5">
-        <v>0.1523046092184369</v>
+        <v>0.5651302605210421</v>
       </c>
       <c r="F38" s="4">
-        <v>0.5749</v>
+        <v>0.0614</v>
       </c>
       <c r="G38" s="5">
-        <v>0.07815631262525051</v>
+        <v>0.07214428857715431</v>
       </c>
       <c r="H38" s="4">
-        <v>1.35</v>
+        <v>0.0757</v>
       </c>
       <c r="I38" s="5">
-        <v>0.2334669338677355</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="J38" s="4">
-        <v>8.122437908477897</v>
+        <v>4.344776102048558</v>
       </c>
       <c r="K38" s="5">
-        <v>0.2064128256513026</v>
+        <v>0.06412825651302606</v>
       </c>
       <c r="L38" s="4">
-        <v>2.21282199673413</v>
+        <v>1.914762004848417</v>
       </c>
       <c r="M38" s="5">
-        <v>0.12625250501002</v>
+        <v>0.09819639278557114</v>
       </c>
       <c r="N38" s="5">
-        <v>0.1593186372745491</v>
+        <v>0.1603206412825651</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2280,43 +2280,43 @@
         <v>51</v>
       </c>
       <c r="B39" s="2">
-        <v>37.12</v>
+        <v>228.17</v>
       </c>
       <c r="C39" s="3">
-        <v>5387</v>
+        <v>876</v>
       </c>
       <c r="D39" s="4">
-        <v>6.87</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E39" s="5">
+        <v>0.1342685370741483</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1.15</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.1132264529058116</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2.05</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.3537074148296593</v>
+      </c>
+      <c r="J39" s="4">
+        <v>5.250888724112382</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.09619238476953909</v>
+      </c>
+      <c r="L39" s="4">
+        <v>2.152684722521443</v>
+      </c>
+      <c r="M39" s="5">
         <v>0.1102204408817635</v>
       </c>
-      <c r="F39" s="4">
-        <v>1.36</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0.1472945891783567</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0.6911</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0.09018036072144289</v>
-      </c>
-      <c r="J39" s="4">
-        <v>7.494347053483993</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0.1763527054108217</v>
-      </c>
-      <c r="L39" s="4">
-        <v>3.92068796591133</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0.2765531062124248</v>
-      </c>
       <c r="N39" s="5">
-        <v>0.1601202404809619</v>
+        <v>0.1615230460921844</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2324,43 +2324,43 @@
         <v>52</v>
       </c>
       <c r="B40" s="2">
-        <v>55.11</v>
+        <v>41.31</v>
       </c>
       <c r="C40" s="3">
-        <v>3629</v>
+        <v>4841</v>
       </c>
       <c r="D40" s="4">
-        <v>24.28</v>
+        <v>8.25</v>
       </c>
       <c r="E40" s="5">
-        <v>0.5691382765531062</v>
+        <v>0.1282565130260521</v>
       </c>
       <c r="F40" s="4">
-        <v>0.0613</v>
+        <v>1.42</v>
       </c>
       <c r="G40" s="5">
-        <v>0.07214428857715431</v>
+        <v>0.1603206412825652</v>
       </c>
       <c r="H40" s="4">
-        <v>0.0755</v>
+        <v>0.2705</v>
       </c>
       <c r="I40" s="5">
-        <v>0.002004008016032064</v>
+        <v>0.01402805611222445</v>
       </c>
       <c r="J40" s="4">
-        <v>4.343444583965605</v>
+        <v>13.15011469145523</v>
       </c>
       <c r="K40" s="5">
-        <v>0.06412825651302606</v>
+        <v>0.4288577154308617</v>
       </c>
       <c r="L40" s="4">
-        <v>1.914175198952296</v>
+        <v>1.595264391035166</v>
       </c>
       <c r="M40" s="5">
-        <v>0.09819639278557114</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="N40" s="5">
-        <v>0.161122244488978</v>
+        <v>0.1627254509018036</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2368,43 +2368,43 @@
         <v>53</v>
       </c>
       <c r="B41" s="2">
-        <v>41.5</v>
+        <v>37.39</v>
       </c>
       <c r="C41" s="3">
-        <v>4819</v>
+        <v>5349</v>
       </c>
       <c r="D41" s="4">
-        <v>8.279999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="E41" s="5">
-        <v>0.1282565130260521</v>
+        <v>0.1142284569138277</v>
       </c>
       <c r="F41" s="4">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G41" s="5">
-        <v>0.1623246492985972</v>
+        <v>0.1482965931863728</v>
       </c>
       <c r="H41" s="4">
-        <v>0.2677</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="I41" s="5">
-        <v>0.01402805611222445</v>
+        <v>0.09418837675350701</v>
       </c>
       <c r="J41" s="4">
-        <v>13.04418832837562</v>
+        <v>7.60017730094162</v>
       </c>
       <c r="K41" s="5">
-        <v>0.43687374749499</v>
+        <v>0.1783567134268537</v>
       </c>
       <c r="L41" s="4">
-        <v>1.582414270784688</v>
+        <v>3.976053346600985</v>
       </c>
       <c r="M41" s="5">
-        <v>0.08216432865731463</v>
+        <v>0.2785571142284569</v>
       </c>
       <c r="N41" s="5">
-        <v>0.1647294589178357</v>
+        <v>0.1627254509018036</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2412,43 +2412,43 @@
         <v>54</v>
       </c>
       <c r="B42" s="2">
-        <v>12.97</v>
+        <v>12.84</v>
       </c>
       <c r="C42" s="3">
-        <v>15420</v>
+        <v>15576</v>
       </c>
       <c r="D42" s="4">
-        <v>9.68</v>
+        <v>9.58</v>
       </c>
       <c r="E42" s="5">
+        <v>0.156312625250501</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="G42" s="5">
         <v>0.1603206412825652</v>
       </c>
-      <c r="F42" s="4">
-        <v>1.41</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.1623246492985972</v>
-      </c>
       <c r="H42" s="4">
-        <v>0.5334</v>
+        <v>0.5376</v>
       </c>
       <c r="I42" s="5">
         <v>0.06012024048096192</v>
       </c>
       <c r="J42" s="4">
-        <v>8.354787301587301</v>
+        <v>8.387612698412699</v>
       </c>
       <c r="K42" s="5">
-        <v>0.2224448897795591</v>
+        <v>0.2104208416833667</v>
       </c>
       <c r="L42" s="4">
-        <v>3.448094333442516</v>
+        <v>3.461641663937111</v>
       </c>
       <c r="M42" s="5">
         <v>0.2424849699398798</v>
       </c>
       <c r="N42" s="5">
-        <v>0.1695390781563126</v>
+        <v>0.1659318637274549</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2456,43 +2456,43 @@
         <v>55</v>
       </c>
       <c r="B43" s="2">
-        <v>110.96</v>
+        <v>75.63</v>
       </c>
       <c r="C43" s="3">
-        <v>1802</v>
+        <v>2644</v>
       </c>
       <c r="D43" s="4">
-        <v>-612.7</v>
+        <v>13.11</v>
       </c>
       <c r="E43" s="5">
-        <v>0.004008016032064129</v>
+        <v>0.2515030060120241</v>
       </c>
       <c r="F43" s="4">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="G43" s="5">
-        <v>0.2414829659318637</v>
+        <v>0.2795591182364729</v>
       </c>
       <c r="H43" s="4">
-        <v>2.51</v>
+        <v>1.1</v>
       </c>
       <c r="I43" s="5">
-        <v>0.4619238476953908</v>
+        <v>0.1663326653306614</v>
       </c>
       <c r="J43" s="4">
-        <v>-586.0806628965518</v>
+        <v>5.653529254828951</v>
       </c>
       <c r="K43" s="5">
-        <v>0.002004008016032064</v>
+        <v>0.1022044088176353</v>
       </c>
       <c r="L43" s="4">
-        <v>2.512021759385161</v>
+        <v>1.096165292302139</v>
       </c>
       <c r="M43" s="5">
-        <v>0.1523046092184369</v>
+        <v>0.04408817635270541</v>
       </c>
       <c r="N43" s="5">
-        <v>0.1723446893787575</v>
+        <v>0.1687374749498998</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2500,43 +2500,43 @@
         <v>56</v>
       </c>
       <c r="B44" s="2">
-        <v>16.78</v>
+        <v>90.92</v>
       </c>
       <c r="C44" s="3">
-        <v>11918</v>
+        <v>2199</v>
       </c>
       <c r="D44" s="4">
-        <v>5.99</v>
+        <v>4.47</v>
       </c>
       <c r="E44" s="5">
-        <v>0.09218436873747494</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="F44" s="4">
-        <v>0.9651</v>
+        <v>2.32</v>
       </c>
       <c r="G44" s="5">
-        <v>0.09418837675350701</v>
+        <v>0.3807615230460922</v>
       </c>
       <c r="H44" s="4">
-        <v>0.711</v>
+        <v>1.43</v>
       </c>
       <c r="I44" s="5">
-        <v>0.09819639278557114</v>
+        <v>0.2444889779559118</v>
       </c>
       <c r="J44" s="4">
-        <v>11.79653925</v>
+        <v>5.66684381152833</v>
       </c>
       <c r="K44" s="5">
-        <v>0.3707414829659318</v>
+        <v>0.1042084168336673</v>
       </c>
       <c r="L44" s="4">
-        <v>3.116991675529705</v>
+        <v>1.425490964114491</v>
       </c>
       <c r="M44" s="5">
-        <v>0.2124248496993988</v>
+        <v>0.06813627254509019</v>
       </c>
       <c r="N44" s="5">
-        <v>0.1735470941883767</v>
+        <v>0.1701402805611222</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2544,43 +2544,43 @@
         <v>57</v>
       </c>
       <c r="B45" s="2">
-        <v>76.37</v>
+        <v>110.8</v>
       </c>
       <c r="C45" s="3">
-        <v>2618</v>
+        <v>1805</v>
       </c>
       <c r="D45" s="4">
-        <v>13.24</v>
+        <v>9.06</v>
       </c>
       <c r="E45" s="5">
-        <v>0.2545090180360722</v>
+        <v>0.1422845691382766</v>
       </c>
       <c r="F45" s="4">
-        <v>1.91</v>
+        <v>2.46</v>
       </c>
       <c r="G45" s="5">
-        <v>0.2925851703406814</v>
+        <v>0.4018036072144289</v>
       </c>
       <c r="H45" s="4">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="I45" s="5">
-        <v>0.1703406813627255</v>
+        <v>0.187374749498998</v>
       </c>
       <c r="J45" s="4">
-        <v>5.613554057714684</v>
+        <v>4.90366455244328</v>
       </c>
       <c r="K45" s="5">
-        <v>0.1042084168336673</v>
+        <v>0.08416833667334669</v>
       </c>
       <c r="L45" s="4">
-        <v>1.088414483620612</v>
+        <v>1.21702202605967</v>
       </c>
       <c r="M45" s="5">
-        <v>0.04609218436873747</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="N45" s="5">
-        <v>0.1735470941883768</v>
+        <v>0.1735470941883767</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2588,43 +2588,43 @@
         <v>58</v>
       </c>
       <c r="B46" s="2">
-        <v>89.68000000000001</v>
+        <v>111.12</v>
       </c>
       <c r="C46" s="3">
-        <v>2230</v>
+        <v>1799</v>
       </c>
       <c r="D46" s="4">
-        <v>4.41</v>
+        <v>-613.58</v>
       </c>
       <c r="E46" s="5">
-        <v>0.05210420841683366</v>
+        <v>0.004008016032064129</v>
       </c>
       <c r="F46" s="4">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="G46" s="5">
-        <v>0.3887775551102204</v>
+        <v>0.2454909819639279</v>
       </c>
       <c r="H46" s="4">
-        <v>1.43</v>
+        <v>2.58</v>
       </c>
       <c r="I46" s="5">
-        <v>0.2464929859719439</v>
+        <v>0.4649298597194389</v>
       </c>
       <c r="J46" s="4">
-        <v>5.676954148546046</v>
+        <v>-601.4196833103448</v>
       </c>
       <c r="K46" s="5">
-        <v>0.1082164328657315</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="L46" s="4">
-        <v>1.428034212974392</v>
+        <v>2.577766895654744</v>
       </c>
       <c r="M46" s="5">
-        <v>0.07414829659318638</v>
+        <v>0.1523046092184369</v>
       </c>
       <c r="N46" s="5">
-        <v>0.1739478957915832</v>
+        <v>0.17374749498998</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2632,43 +2632,43 @@
         <v>59</v>
       </c>
       <c r="B47" s="2">
-        <v>51.82</v>
+        <v>51.99</v>
       </c>
       <c r="C47" s="3">
-        <v>3859</v>
+        <v>3846</v>
       </c>
       <c r="D47" s="4">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="E47" s="5">
-        <v>0.08416833667334669</v>
+        <v>0.08817635270541083</v>
       </c>
       <c r="F47" s="4">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G47" s="5">
-        <v>0.2364729458917836</v>
+        <v>0.2374749498997996</v>
       </c>
       <c r="H47" s="4">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="I47" s="5">
-        <v>0.3697394789579158</v>
+        <v>0.3667334669338678</v>
       </c>
       <c r="J47" s="4">
-        <v>4.499112543901002</v>
+        <v>4.568763707719505</v>
       </c>
       <c r="K47" s="5">
         <v>0.07014028056112225</v>
       </c>
       <c r="L47" s="4">
-        <v>2.142855455234353</v>
+        <v>2.176029192253719</v>
       </c>
       <c r="M47" s="5">
         <v>0.1142284569138277</v>
       </c>
       <c r="N47" s="5">
-        <v>0.1749498997995992</v>
+        <v>0.1753507014028056</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2676,43 +2676,43 @@
         <v>60</v>
       </c>
       <c r="B48" s="2">
-        <v>111.34</v>
+        <v>113.88</v>
       </c>
       <c r="C48" s="3">
-        <v>1796</v>
+        <v>1756</v>
       </c>
       <c r="D48" s="4">
-        <v>9.1</v>
+        <v>15.84</v>
       </c>
       <c r="E48" s="5">
-        <v>0.1422845691382766</v>
+        <v>0.3286573146292585</v>
       </c>
       <c r="F48" s="4">
-        <v>2.45</v>
+        <v>2.06</v>
       </c>
       <c r="G48" s="5">
-        <v>0.406813627254509</v>
+        <v>0.3216432865731463</v>
       </c>
       <c r="H48" s="4">
-        <v>1.17</v>
+        <v>0.7252999999999999</v>
       </c>
       <c r="I48" s="5">
-        <v>0.1893787575150301</v>
+        <v>0.09819639278557114</v>
       </c>
       <c r="J48" s="4">
-        <v>4.869548360864028</v>
+        <v>4.903265599375651</v>
       </c>
       <c r="K48" s="5">
-        <v>0.08416833667334669</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="L48" s="4">
-        <v>1.208554857036753</v>
+        <v>1.124940492515578</v>
       </c>
       <c r="M48" s="5">
-        <v>0.05410821643286574</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="N48" s="5">
-        <v>0.1753507014028056</v>
+        <v>0.1761523046092184</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2720,43 +2720,43 @@
         <v>61</v>
       </c>
       <c r="B49" s="2">
-        <v>113.12</v>
+        <v>128.01</v>
       </c>
       <c r="C49" s="3">
-        <v>1768</v>
+        <v>1562</v>
       </c>
       <c r="D49" s="4">
-        <v>15.73</v>
+        <v>21.73</v>
       </c>
       <c r="E49" s="5">
-        <v>0.3206412825651303</v>
+        <v>0.4929859719438878</v>
       </c>
       <c r="F49" s="4">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="G49" s="5">
-        <v>0.3226452905811623</v>
+        <v>0.2084168336673347</v>
       </c>
       <c r="H49" s="4">
-        <v>0.7224</v>
+        <v>0.6629</v>
       </c>
       <c r="I49" s="5">
-        <v>0.1002004008016032</v>
+        <v>0.08416833667334669</v>
       </c>
       <c r="J49" s="4">
-        <v>4.883596547346514</v>
+        <v>5.043590072220981</v>
       </c>
       <c r="K49" s="5">
-        <v>0.08617234468937877</v>
+        <v>0.09218436873747494</v>
       </c>
       <c r="L49" s="4">
-        <v>1.120427885023993</v>
+        <v>0.6628938365186077</v>
       </c>
       <c r="M49" s="5">
-        <v>0.0501002004008016</v>
+        <v>0.01402805611222445</v>
       </c>
       <c r="N49" s="5">
-        <v>0.1759519038076152</v>
+        <v>0.1783567134268537</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2764,43 +2764,43 @@
         <v>62</v>
       </c>
       <c r="B50" s="2">
-        <v>128.22</v>
+        <v>51.07</v>
       </c>
       <c r="C50" s="3">
-        <v>1559</v>
+        <v>3916</v>
       </c>
       <c r="D50" s="4">
-        <v>21.77</v>
+        <v>6.56</v>
       </c>
       <c r="E50" s="5">
-        <v>0.4949899799599198</v>
+        <v>0.1012024048096192</v>
       </c>
       <c r="F50" s="4">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="G50" s="5">
-        <v>0.2124248496993988</v>
+        <v>0.2975951903807615</v>
       </c>
       <c r="H50" s="4">
-        <v>0.6534</v>
+        <v>0.6038</v>
       </c>
       <c r="I50" s="5">
-        <v>0.08617234468937877</v>
+        <v>0.07014028056112225</v>
       </c>
       <c r="J50" s="4">
-        <v>4.971606217705308</v>
+        <v>5.960613450670377</v>
       </c>
       <c r="K50" s="5">
-        <v>0.09218436873747494</v>
+        <v>0.1142284569138277</v>
       </c>
       <c r="L50" s="4">
-        <v>0.6534327873841608</v>
+        <v>4.737570115713281</v>
       </c>
       <c r="M50" s="5">
-        <v>0.01402805611222445</v>
+        <v>0.3306613226452906</v>
       </c>
       <c r="N50" s="5">
-        <v>0.1799599198396793</v>
+        <v>0.1827655310621243</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2808,43 +2808,43 @@
         <v>63</v>
       </c>
       <c r="B51" s="2">
-        <v>57.65</v>
+        <v>32.1</v>
       </c>
       <c r="C51" s="3">
-        <v>3469</v>
+        <v>6230</v>
       </c>
       <c r="D51" s="4">
-        <v>7.45</v>
+        <v>16.29</v>
       </c>
       <c r="E51" s="5">
-        <v>0.124248496993988</v>
+        <v>0.3406813627254509</v>
       </c>
       <c r="F51" s="4">
-        <v>1.2</v>
+        <v>1.49</v>
       </c>
       <c r="G51" s="5">
-        <v>0.1292585170340681</v>
+        <v>0.1813627254509018</v>
       </c>
       <c r="H51" s="4">
-        <v>1.95</v>
+        <v>1.21</v>
       </c>
       <c r="I51" s="5">
-        <v>0.3376753507014028</v>
+        <v>0.1953907815631263</v>
       </c>
       <c r="J51" s="4">
-        <v>3.416705232039931</v>
+        <v>6.5420715229265</v>
       </c>
       <c r="K51" s="5">
-        <v>0.0280561122244489</v>
+        <v>0.1322645290581162</v>
       </c>
       <c r="L51" s="4">
-        <v>4.13726668225644</v>
+        <v>1.374108358968912</v>
       </c>
       <c r="M51" s="5">
-        <v>0.2945891783567134</v>
+        <v>0.06613226452905811</v>
       </c>
       <c r="N51" s="5">
-        <v>0.1827655310621243</v>
+        <v>0.1831663326653307</v>
       </c>
     </row>
   </sheetData>
